--- a/kobe_videos.xlsx
+++ b/kobe_videos.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pw3hUyyo1SU</t>
+          <t>vpI0tk9G2Jc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-05-12 16:15:00 +0000</t>
+          <t>2022-01-26 13:00:36 +0000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Pw3hUyyo1SU</t>
+          <t>https://www.youtube.com/watch?v=vpI0tk9G2Jc</t>
         </is>
       </c>
     </row>
@@ -481,17 +481,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UsTjkwEfJaU</t>
+          <t>JqGCDusQE-8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-05-19 22:13:33 +0000</t>
+          <t>2014-10-22 00:52:25 +0000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=UsTjkwEfJaU</t>
+          <t>https://www.youtube.com/watch?v=JqGCDusQE-8</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LRdZUdR8bqM</t>
+          <t>OheQLsSRjTk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-08-02 20:29:50 +0000</t>
+          <t>2018-08-20 18:47:04 +0000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=LRdZUdR8bqM</t>
+          <t>https://www.youtube.com/watch?v=OheQLsSRjTk</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>smN_feWx9p0</t>
+          <t>FeXZY4eVLlo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020-10-27 18:50:55 +0000</t>
+          <t>2008-01-22 16:05:15 +0000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=smN_feWx9p0</t>
+          <t>https://www.youtube.com/watch?v=FeXZY4eVLlo</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zm3UcrSBSu4</t>
+          <t>rPeOm3JnVOY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2013-03-17 03:18:17 +0000</t>
+          <t>2014-10-04 10:17:35 +0000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Zm3UcrSBSu4</t>
+          <t>https://www.youtube.com/watch?v=rPeOm3JnVOY</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>yHB5oRRTeeA</t>
+          <t>rrZnYJ3-R0c</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2016-09-10 00:36:57 +0000</t>
+          <t>2020-07-10 14:28:16 +0000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=yHB5oRRTeeA</t>
+          <t>https://www.youtube.com/watch?v=rrZnYJ3-R0c</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FoEUd3YfnWc</t>
+          <t>cGBI6PvPznA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2018-07-04 15:01:56 +0000</t>
+          <t>2009-06-05 05:56:09 +0000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FoEUd3YfnWc</t>
+          <t>https://www.youtube.com/watch?v=cGBI6PvPznA</t>
         </is>
       </c>
     </row>

--- a/kobe_videos.xlsx
+++ b/kobe_videos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vpI0tk9G2Jc</t>
+          <t>lk5o2PK76hs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-01-26 13:00:36 +0000</t>
+          <t>2010-10-28T21:49:10Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vpI0tk9G2Jc</t>
+          <t>https://www.youtube.com/watch?v=lk5o2PK76hs</t>
         </is>
       </c>
     </row>
@@ -481,17 +481,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JqGCDusQE-8</t>
+          <t>cU63znm-aO8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2014-10-22 00:52:25 +0000</t>
+          <t>2011-12-30T07:24:03Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JqGCDusQE-8</t>
+          <t>https://www.youtube.com/watch?v=cU63znm-aO8</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OheQLsSRjTk</t>
+          <t>xXtA4QTfKT8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2018-08-20 18:47:04 +0000</t>
+          <t>2019-09-08T14:17:19Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OheQLsSRjTk</t>
+          <t>https://www.youtube.com/watch?v=xXtA4QTfKT8</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FeXZY4eVLlo</t>
+          <t>ZyBDKu55EGw</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2008-01-22 16:05:15 +0000</t>
+          <t>2020-05-07T15:18:10Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=FeXZY4eVLlo</t>
+          <t>https://www.youtube.com/watch?v=ZyBDKu55EGw</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rPeOm3JnVOY</t>
+          <t>HbaarPJ3Jvs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2014-10-04 10:17:35 +0000</t>
+          <t>2016-05-18T22:47:36Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=rPeOm3JnVOY</t>
+          <t>https://www.youtube.com/watch?v=HbaarPJ3Jvs</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rrZnYJ3-R0c</t>
+          <t>qgHCnPoJ4wE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-07-10 14:28:16 +0000</t>
+          <t>2022-03-17T20:14:04Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=rrZnYJ3-R0c</t>
+          <t>https://www.youtube.com/watch?v=qgHCnPoJ4wE</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,717 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>L-jfb98i8ME</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2016-02-28T04:55:45Z</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=L-jfb98i8ME</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>kn3lul0Oee0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-05-07T20:24:56Z</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=kn3lul0Oee0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MDWmwWdfrXc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2013-04-09T19:14:51Z</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MDWmwWdfrXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FUYSSDj_ntg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2018-08-23T20:00:01Z</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FUYSSDj_ntg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>gIqhVfsB1n8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2015-08-29T20:09:18Z</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gIqhVfsB1n8</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rx2inwUj_F0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2016-04-15T16:50:10Z</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Rx2inwUj_F0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pKTLxG0wGfg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-01-29T02:45:00Z</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pKTLxG0wGfg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>T6UnitdiLo0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2015-11-30T15:04:36Z</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T6UnitdiLo0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VRu4GIZLtb4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2015-11-10T21:12:32Z</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VRu4GIZLtb4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Zw7Qxy6aKeY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2018-05-16T16:00:30Z</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Zw7Qxy6aKeY</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Q8BSoh6qAY4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-02-17T17:00:02Z</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Q8BSoh6qAY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FeXZY4eVLlo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2008-01-22T16:05:15Z</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FeXZY4eVLlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>l6L3fqXxVYs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-11-27T04:00:10Z</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=l6L3fqXxVYs</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>cGBI6PvPznA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2009-06-05 05:56:09 +0000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2009-06-05T05:56:09Z</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=cGBI6PvPznA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1fjhIWJSxfw</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2018-08-23T16:00:01Z</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1fjhIWJSxfw</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adRunnK0muY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022-12-10T00:30:45Z</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=adRunnK0muY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rrZnYJ3-R0c</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020-07-10T14:28:16Z</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rrZnYJ3-R0c</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>a9MfQKnvEkk</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2014-08-28T20:02:59Z</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=a9MfQKnvEkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>x3sTzWCvk5o</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2020-05-21T18:39:46Z</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=x3sTzWCvk5o</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>fhpVE5Yfvhc</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2011-10-25T07:39:02Z</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fhpVE5Yfvhc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1vzBFmRYyE0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2019-08-24T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1vzBFmRYyE0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Us5QIvuahx4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2010-11-25T00:24:23Z</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Us5QIvuahx4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A2JE2L4vhNA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2013-03-09T08:30:26Z</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=A2JE2L4vhNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>t9jmWZ6u-44</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022-08-23T22:14:40Z</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=t9jmWZ6u-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>xXtA4QTfKT8</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2019-09-08T14:17:19Z</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xXtA4QTfKT8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SgCiqocx6WQ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2016-04-17T20:44:34Z</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SgCiqocx6WQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2JjjXPT0IPQ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2016-09-10T00:13:38Z</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2JjjXPT0IPQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gzIS-RiKckM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2017-05-14T14:13:00Z</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gzIS-RiKckM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UhfbDpETimU</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2020-07-09T20:40:12Z</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UhfbDpETimU</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3sYuZ6Oftfk</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2018-03-05T22:28:18Z</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3sYuZ6Oftfk</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KfgNROlaIE4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2017-09-22T10:53:41Z</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=KfgNROlaIE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lD72I6MLqao</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-08-28T08:12:55Z</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=lD72I6MLqao</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>hrB11u4ZDas</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2019-06-20T05:22:02Z</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hrB11u4ZDas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a9MfQKnvEkk</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2014-08-28T20:02:59Z</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=a9MfQKnvEkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>q9_dBKE2yCc</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2015-09-22T07:21:20Z</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q9_dBKE2yCc</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>xGoCyf8FDoI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-02-14T12:23:56Z</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xGoCyf8FDoI</t>
         </is>
       </c>
     </row>

--- a/kobe_videos.xlsx
+++ b/kobe_videos.xlsx
@@ -456,7 +456,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2010-10-28T21:49:10Z</t>
+          <t>2010-10-28 21:49:10 +0000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2011-12-30T07:24:03Z</t>
+          <t>2011-12-30 07:24:03 +0000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-09-08T14:17:19Z</t>
+          <t>2019-09-08 14:17:19 +0000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020-05-07T15:18:10Z</t>
+          <t>2020-05-07 15:18:10 +0000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2016-05-18T22:47:36Z</t>
+          <t>2016-05-18 22:47:36 +0000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-03-17T20:14:04Z</t>
+          <t>2022-03-17 20:14:04 +0000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2016-02-28T04:55:45Z</t>
+          <t>2016-02-28 04:55:45 +0000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2020-05-07T20:24:56Z</t>
+          <t>2020-05-07 20:24:56 +0000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2013-04-09T19:14:51Z</t>
+          <t>2013-04-09 19:14:51 +0000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2018-08-23T20:00:01Z</t>
+          <t>2018-08-23 20:00:01 +0000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2015-08-29T20:09:18Z</t>
+          <t>2015-08-29 20:09:18 +0000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2016-04-15T16:50:10Z</t>
+          <t>2016-04-15 16:50:10 +0000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2019-01-29T02:45:00Z</t>
+          <t>2019-01-29 02:45:00 +0000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2015-11-30T15:04:36Z</t>
+          <t>2015-11-30 15:04:36 +0000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2015-11-10T21:12:32Z</t>
+          <t>2015-11-10 21:12:32 +0000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2018-05-16T16:00:30Z</t>
+          <t>2018-05-16 16:00:30 +0000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2019-02-17T17:00:02Z</t>
+          <t>2019-02-17 17:00:02 +0000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2008-01-22T16:05:15Z</t>
+          <t>2008-01-22 16:05:15 +0000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-11-27T04:00:10Z</t>
+          <t>2021-11-27 04:00:10 +0000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2009-06-05T05:56:09Z</t>
+          <t>2009-06-05 05:56:09 +0000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2018-08-23T16:00:01Z</t>
+          <t>2018-08-23 16:00:01 +0000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022-12-10T00:30:45Z</t>
+          <t>2022-12-10 00:30:45 +0000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2020-07-10T14:28:16Z</t>
+          <t>2020-07-10 14:28:16 +0000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2014-08-28T20:02:59Z</t>
+          <t>2014-08-28 20:02:59 +0000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2020-05-21T18:39:46Z</t>
+          <t>2020-05-21 18:39:46 +0000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2011-10-25T07:39:02Z</t>
+          <t>2011-10-25 07:39:02 +0000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2019-08-24T14:30:00Z</t>
+          <t>2019-08-24 14:30:00 +0000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2010-11-25T00:24:23Z</t>
+          <t>2010-11-25 00:24:23 +0000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2013-03-09T08:30:26Z</t>
+          <t>2013-03-09 08:30:26 +0000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022-08-23T22:14:40Z</t>
+          <t>2022-08-23 22:14:40 +0000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2019-09-08T14:17:19Z</t>
+          <t>2019-09-08 14:17:19 +0000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2016-04-17T20:44:34Z</t>
+          <t>2016-04-17 20:44:34 +0000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2016-09-10T00:13:38Z</t>
+          <t>2016-09-10 00:13:38 +0000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2017-05-14T14:13:00Z</t>
+          <t>2017-05-14 14:13:00 +0000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020-07-09T20:40:12Z</t>
+          <t>2020-07-09 20:40:12 +0000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2018-03-05T22:28:18Z</t>
+          <t>2018-03-05 22:28:18 +0000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2017-09-22T10:53:41Z</t>
+          <t>2017-09-22 10:53:41 +0000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-08-28T08:12:55Z</t>
+          <t>2021-08-28 08:12:55 +0000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2019-06-20T05:22:02Z</t>
+          <t>2019-06-20 05:22:02 +0000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2014-08-28T20:02:59Z</t>
+          <t>2014-08-28 20:02:59 +0000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2015-09-22T07:21:20Z</t>
+          <t>2015-09-22 07:21:20 +0000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-02-14T12:23:56Z</t>
+          <t>2020-02-14 12:23:56 +0000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">

--- a/kobe_videos.xlsx
+++ b/kobe_videos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>video_id</t>
@@ -456,7 +451,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +471,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +491,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -516,7 +511,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,7 +531,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,7 +551,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +571,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -596,7 +591,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -616,7 +611,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -636,7 +631,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -656,7 +651,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -676,7 +671,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -696,7 +691,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -716,7 +711,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -736,7 +731,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -756,542 +751,3462 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>eJMiuCWQyMA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2018-08-23 16:52:53 +0000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eJMiuCWQyMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Q8BSoh6qAY4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-02-17 17:00:02 +0000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Q8BSoh6qAY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Zw7Qxy6aKeY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>2018-05-16 16:00:30 +0000</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=Zw7Qxy6aKeY</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Q8BSoh6qAY4</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2019-02-17 17:00:02 +0000</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Q8BSoh6qAY4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>l6L3fqXxVYs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-11-27 04:00:10 +0000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=l6L3fqXxVYs</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cGBI6PvPznA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2009-06-05 05:56:09 +0000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cGBI6PvPznA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1fjhIWJSxfw</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2018-08-23 16:00:01 +0000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1fjhIWJSxfw</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adRunnK0muY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022-12-10 00:30:45 +0000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=adRunnK0muY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>a9MfQKnvEkk</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2014-08-28 20:02:59 +0000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=a9MfQKnvEkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>iJLt19Cmrx8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2012-05-09 16:51:28 +0000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iJLt19Cmrx8</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>x3sTzWCvk5o</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2020-05-21 18:39:46 +0000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=x3sTzWCvk5o</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>fhpVE5Yfvhc</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2011-10-25 07:39:02 +0000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fhpVE5Yfvhc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1vzBFmRYyE0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2019-08-24 14:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1vzBFmRYyE0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Us5QIvuahx4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2010-11-25 00:24:23 +0000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Us5QIvuahx4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A2JE2L4vhNA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2013-03-09 08:30:26 +0000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=A2JE2L4vhNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>t9jmWZ6u-44</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022-08-23 22:14:40 +0000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=t9jmWZ6u-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>xXtA4QTfKT8</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2019-09-08 14:17:19 +0000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xXtA4QTfKT8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SgCiqocx6WQ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2016-04-17 20:44:34 +0000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SgCiqocx6WQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2JjjXPT0IPQ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2016-09-10 00:13:38 +0000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2JjjXPT0IPQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gzIS-RiKckM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2017-05-14 14:13:00 +0000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gzIS-RiKckM</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UhfbDpETimU</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2020-07-09 20:40:12 +0000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UhfbDpETimU</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3sYuZ6Oftfk</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2018-03-05 22:28:18 +0000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3sYuZ6Oftfk</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KfgNROlaIE4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2017-09-22 10:53:41 +0000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=KfgNROlaIE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lD72I6MLqao</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-08-28 08:12:55 +0000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=lD72I6MLqao</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>hrB11u4ZDas</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2019-06-20 05:22:02 +0000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hrB11u4ZDas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a9MfQKnvEkk</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2014-08-28 20:02:59 +0000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=a9MfQKnvEkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>q9_dBKE2yCc</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2015-09-22 07:21:20 +0000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=q9_dBKE2yCc</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>z2mRP7hxTdk</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-04-17 15:00:37 +0000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=z2mRP7hxTdk</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GrbcunAQV3o</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-03-11 07:40:48 +0000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=GrbcunAQV3o</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cmJLVJkSM30</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2020-03-14 05:16:05 +0000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cmJLVJkSM30</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>zV7T2TLSz4k</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-04-30 15:30:07 +0000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zV7T2TLSz4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>vpI0tk9G2Jc</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-01-26 13:00:36 +0000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vpI0tk9G2Jc</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>T7r5aOWn8bc</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2013-06-06 00:59:12 +0000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T7r5aOWn8bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ZrKG34jm5zs</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2019-11-16 17:00:13 +0000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZrKG34jm5zs</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>m4-DZzk7HFs</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2018-09-07 01:08:13 +0000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=m4-DZzk7HFs</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>o9NILK4OXpo</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2020-01-29 05:16:11 +0000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=o9NILK4OXpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>wzAxzZgnUCM</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2023-05-03 20:12:27 +0000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wzAxzZgnUCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>oOz0kzQ5u_c</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2023-04-08 19:24:46 +0000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oOz0kzQ5u_c</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>29LWlJ1tEqM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2018-08-23 23:33:55 +0000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=29LWlJ1tEqM</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MgwdlK06Evw</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2011-08-16 05:24:55 +0000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=MgwdlK06Evw</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ruYx3gevWoE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2018-09-15 22:28:54 +0000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ruYx3gevWoE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bLBugqq4nxE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2022-08-17 15:00:25 +0000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bLBugqq4nxE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CTYSFOi7VCo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2015-09-06 23:54:22 +0000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=CTYSFOi7VCo</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gf292dq2N10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2020-01-31 03:09:05 +0000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gf292dq2N10</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>aYLR4BcX7Rg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2019-03-07 23:41:00 +0000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aYLR4BcX7Rg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pw3hUyyo1SU</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2023-05-12 16:15:00 +0000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Pw3hUyyo1SU</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>7rh2Qh2-YFw</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2022-07-05 17:00:03 +0000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7rh2Qh2-YFw</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>EigN7SIuFVw</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2023-05-06 16:00:10 +0000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=EigN7SIuFVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>7zjOegOAboc</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2022-09-12 14:40:54 +0000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7zjOegOAboc</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ADsOiQXa9-I</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-03-12 22:00:07 +0000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ADsOiQXa9-I</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cIuSIicP5P0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2018-09-27 00:28:16 +0000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cIuSIicP5P0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>OMluwP1C8gg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2018-08-22 23:56:58 +0000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OMluwP1C8gg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>FeXZY4eVLlo</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>2008-01-22 16:05:15 +0000</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=FeXZY4eVLlo</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>l6L3fqXxVYs</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2021-11-27 04:00:10 +0000</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=l6L3fqXxVYs</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>cGBI6PvPznA</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2009-06-05 05:56:09 +0000</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=cGBI6PvPznA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1fjhIWJSxfw</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2018-08-23 16:00:01 +0000</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=1fjhIWJSxfw</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>adRunnK0muY</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2022-12-10 00:30:45 +0000</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=adRunnK0muY</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TgwRU3ufVAU</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2017-03-03 13:07:39 +0000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TgwRU3ufVAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>JqGCDusQE-8</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2014-10-22 00:52:25 +0000</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=JqGCDusQE-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>tKq1ZV75dW0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2016-07-17 04:00:53 +0000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tKq1ZV75dW0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>o9NILK4OXpo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2020-01-29 05:16:11 +0000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=o9NILK4OXpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BdGeXcJ-hfo</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2016-04-14 09:06:20 +0000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=BdGeXcJ-hfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>leFVCYaTDvE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2016-04-14 07:08:47 +0000</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=leFVCYaTDvE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KwxurH0dGmA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2014-10-13 04:56:00 +0000</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=KwxurH0dGmA</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tp7VyzrbYpM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2020-01-28 13:00:17 +0000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Tp7VyzrbYpM</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7wVwztfmNVI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2014-08-07 17:00:31 +0000</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wVwztfmNVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>p8poZ12MafY</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2022-10-17 23:04:14 +0000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=p8poZ12MafY</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>gyl8ICTRg6U</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2018-07-04 20:00:01 +0000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gyl8ICTRg6U</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LoKmz7OAM3I</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2021-10-18 21:00:06 +0000</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LoKmz7OAM3I</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UsTjkwEfJaU</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2020-05-19 22:13:33 +0000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UsTjkwEfJaU</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pj9p1X6py0M</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2020-01-29 16:08:33 +0000</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Pj9p1X6py0M</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Stu1w9QhlNA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2014-09-22 00:23:47 +0000</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Stu1w9QhlNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TdBFq4p6Esk</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2012-04-29 09:50:20 +0000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdBFq4p6Esk</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>oloLIn7Mono</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2023-05-31 17:00:34 +0000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oloLIn7Mono</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>mDbB8nGOTKk</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2013-03-04 20:41:05 +0000</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mDbB8nGOTKk</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FeXZY4eVLlo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2008-01-22 16:05:15 +0000</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FeXZY4eVLlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>UWMJyURYZ80</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-03-12 00:15:06 +0000</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UWMJyURYZ80</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>OMluwP1C8gg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2018-08-22 23:56:58 +0000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OMluwP1C8gg</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NkADnhLwhXc</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2020-02-25 13:00:04 +0000</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NkADnhLwhXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>--ARCAZ0MCk</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2018-09-12 19:52:22 +0000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=--ARCAZ0MCk</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fKqs1FgsMQw</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2015-06-13 21:37:18 +0000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=fKqs1FgsMQw</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>OheQLsSRjTk</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2018-08-20 18:47:04 +0000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OheQLsSRjTk</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>iuYFc8u42vM</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2016-11-27 13:00:02 +0000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iuYFc8u42vM</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>h9Kadi5R5DU</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2020-01-28 12:21:50 +0000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=h9Kadi5R5DU</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ruYx3gevWoE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2018-09-15 22:28:54 +0000</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ruYx3gevWoE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>YUkPzMm-1rw</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2016-10-25 13:00:30 +0000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YUkPzMm-1rw</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>qYtJiux8FRs</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2020-04-19 17:26:50 +0000</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=qYtJiux8FRs</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Snmdf-o3lBc</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2018-08-25 14:55:40 +0000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Snmdf-o3lBc</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>leFVCYaTDvE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2016-04-14 07:08:47 +0000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=leFVCYaTDvE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>tU99gw8lQAo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2023-06-10 01:39:28 +0000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=tU99gw8lQAo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>WjC1mrjUB_I</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2015-08-07 15:43:33 +0000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WjC1mrjUB_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>l4G-0rAP2H0</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2019-08-22 20:42:07 +0000</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=l4G-0rAP2H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>LZ4Sy3XXYAA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2018-06-14 21:48:22 +0000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LZ4Sy3XXYAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>xSKAHPq6edw</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2013-02-07 07:25:06 +0000</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xSKAHPq6edw</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>LRdZUdR8bqM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2019-08-02 20:29:50 +0000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LRdZUdR8bqM</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PXFGarWDrEE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2019-11-18 05:53:26 +0000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PXFGarWDrEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>_46VtXvrr3g</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2023-08-11 10:48:16 +0000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_46VtXvrr3g</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ldbmLkXE0Ak</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2015-01-23 03:33:24 +0000</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ldbmLkXE0Ak</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>rrZnYJ3-R0c</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>2020-07-10 14:28:16 +0000</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=rrZnYJ3-R0c</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>a9MfQKnvEkk</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2014-08-28 20:02:59 +0000</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=a9MfQKnvEkk</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>x3sTzWCvk5o</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2020-05-21 18:39:46 +0000</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=x3sTzWCvk5o</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>fhpVE5Yfvhc</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2011-10-25 07:39:02 +0000</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=fhpVE5Yfvhc</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1vzBFmRYyE0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2019-08-24 14:30:00 +0000</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=1vzBFmRYyE0</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Us5QIvuahx4</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2010-11-25 00:24:23 +0000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Us5QIvuahx4</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>A2JE2L4vhNA</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2013-03-09 08:30:26 +0000</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=A2JE2L4vhNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>t9jmWZ6u-44</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2022-08-23 22:14:40 +0000</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=t9jmWZ6u-44</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>xXtA4QTfKT8</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2019-09-08 14:17:19 +0000</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=xXtA4QTfKT8</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SgCiqocx6WQ</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2016-04-17 20:44:34 +0000</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=SgCiqocx6WQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2JjjXPT0IPQ</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2016-09-10 00:13:38 +0000</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=2JjjXPT0IPQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>gzIS-RiKckM</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2017-05-14 14:13:00 +0000</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=gzIS-RiKckM</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>UhfbDpETimU</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2020-07-09 20:40:12 +0000</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=UhfbDpETimU</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3sYuZ6Oftfk</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2018-03-05 22:28:18 +0000</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=3sYuZ6Oftfk</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>KfgNROlaIE4</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2017-09-22 10:53:41 +0000</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=KfgNROlaIE4</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>lD72I6MLqao</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2021-08-28 08:12:55 +0000</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=lD72I6MLqao</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>hrB11u4ZDas</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2019-06-20 05:22:02 +0000</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=hrB11u4ZDas</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>a9MfQKnvEkk</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2014-08-28 20:02:59 +0000</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=a9MfQKnvEkk</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>q9_dBKE2yCc</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2015-09-22 07:21:20 +0000</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=q9_dBKE2yCc</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>xGoCyf8FDoI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2020-02-14 12:23:56 +0000</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=xGoCyf8FDoI</t>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>BpCeK3DQ9v4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2024-03-11 18:00:05 +0000</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=BpCeK3DQ9v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>leFVCYaTDvE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2016-04-14 07:08:47 +0000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=leFVCYaTDvE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>VtO62ILrHdc</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2018-06-04 17:59:53 +0000</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=VtO62ILrHdc</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>o9NILK4OXpo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2020-01-29 05:16:11 +0000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=o9NILK4OXpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>guMmZrnFx70</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2018-08-23 21:00:04 +0000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=guMmZrnFx70</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>FeXZY4eVLlo</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2008-01-22 16:05:15 +0000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FeXZY4eVLlo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>jy5csF3Mc20</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2013-07-27 11:39:26 +0000</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jy5csF3Mc20</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>LFtTJdfwahQ</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2015-10-20 12:11:23 +0000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LFtTJdfwahQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OheQLsSRjTk</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2018-08-20 18:47:04 +0000</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OheQLsSRjTk</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>UsTjkwEfJaU</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2020-05-19 22:13:33 +0000</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=UsTjkwEfJaU</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C8mdP5m7GwA</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2022-07-12 17:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=C8mdP5m7GwA</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>eaU2OBXXWDE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2020-04-13 22:00:27 +0000</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eaU2OBXXWDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ztWJ1ct5Wes</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2022-04-01 17:25:43 +0000</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ztWJ1ct5Wes</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>aMg-f97hyZI</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2022-01-19 20:07:29 +0000</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aMg-f97hyZI</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>vsx5psLQUDw</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2020-04-14 16:50:59 +0000</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vsx5psLQUDw</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Tp7VyzrbYpM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2020-01-28 13:00:17 +0000</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Tp7VyzrbYpM</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>smN_feWx9p0</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2020-10-27 18:50:55 +0000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=smN_feWx9p0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Jdx_GyY7OHg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2018-08-27 15:13:23 +0000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Jdx_GyY7OHg</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>xtieGgegjVg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2022-11-08 11:40:00 +0000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xtieGgegjVg</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ACZnF87Iy84</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2008-06-01 16:17:38 +0000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ACZnF87Iy84</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>LCln4pchTlw</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2021-06-26 11:26:25 +0000</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=LCln4pchTlw</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>QUf-kCuN6lo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2024-03-11 04:57:05 +0000</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=QUf-kCuN6lo</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Jdx_GyY7OHg</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2018-08-27 15:13:23 +0000</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Jdx_GyY7OHg</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>m4-DZzk7HFs</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2018-09-07 01:08:13 +0000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=m4-DZzk7HFs</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>rPeOm3JnVOY</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2014-10-04 10:17:35 +0000</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rPeOm3JnVOY</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>T7r5aOWn8bc</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2013-06-06 00:59:12 +0000</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T7r5aOWn8bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ACZnF87Iy84</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2008-06-01 16:17:38 +0000</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ACZnF87Iy84</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>FoEUd3YfnWc</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2018-07-04 15:01:56 +0000</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FoEUd3YfnWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>79y_YCkHhso</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2011-04-30 07:01:41 +0000</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=79y_YCkHhso</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>va8sNQWLIxI</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2019-05-16 06:03:50 +0000</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=va8sNQWLIxI</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>eKDyV404HXs</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2009-04-13 10:46:16 +0000</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eKDyV404HXs</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Hggn_-gKgdM</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2019-06-09 00:06:37 +0000</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Hggn_-gKgdM</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>5JWm-eZN7fU</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2018-09-03 17:46:12 +0000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5JWm-eZN7fU</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>wRaNQJ44nw0</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2012-04-01 14:09:24 +0000</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wRaNQJ44nw0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>vpI0tk9G2Jc</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2022-01-26 13:00:36 +0000</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vpI0tk9G2Jc</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>--ARCAZ0MCk</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2018-09-12 19:52:22 +0000</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=--ARCAZ0MCk</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Gji56PBuALo</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2018-04-30 01:58:12 +0000</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Gji56PBuALo</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5j8ayNatqAA</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2021-05-06 17:00:02 +0000</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5j8ayNatqAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>oOz0kzQ5u_c</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2023-04-08 19:24:46 +0000</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oOz0kzQ5u_c</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>phZNzYSGhBU</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2021-06-25 18:44:30 +0000</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=phZNzYSGhBU</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>3ejXZDVoraE</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2018-04-20 06:37:04 +0000</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3ejXZDVoraE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>3EiIB6UMbWo</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2024-03-11 17:20:06 +0000</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3EiIB6UMbWo</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>oNWFk_oU8zA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2016-11-06 14:00:02 +0000</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oNWFk_oU8zA</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>rrZnYJ3-R0c</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2020-07-10 14:28:16 +0000</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rrZnYJ3-R0c</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CTYSFOi7VCo</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2015-09-06 23:54:22 +0000</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=CTYSFOi7VCo</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>c_-_HLHNNTo</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2021-09-14 16:00:11 +0000</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=c_-_HLHNNTo</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>oOz0kzQ5u_c</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2023-04-08 19:24:46 +0000</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oOz0kzQ5u_c</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>bLBugqq4nxE</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2022-08-17 15:00:25 +0000</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bLBugqq4nxE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>anIdjgnKL1U</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2022-12-19 19:46:00 +0000</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=anIdjgnKL1U</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>p8poZ12MafY</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2022-10-17 23:04:14 +0000</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=p8poZ12MafY</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ruYx3gevWoE</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2018-09-15 22:28:54 +0000</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ruYx3gevWoE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>rhs5hVTwE9M</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2024-01-19 16:00:30 +0000</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=rhs5hVTwE9M</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>IQX-UGea3Cg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2020-04-04 20:33:58 +0000</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=IQX-UGea3Cg</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>cmJLVJkSM30</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2020-03-14 05:16:05 +0000</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=cmJLVJkSM30</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>zV7T2TLSz4k</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2021-04-30 15:30:07 +0000</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=zV7T2TLSz4k</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>oloLIn7Mono</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2023-05-31 17:00:34 +0000</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oloLIn7Mono</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>yHB5oRRTeeA</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2016-09-10 00:36:57 +0000</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=yHB5oRRTeeA</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>XoiBMud94c0</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2014-08-04 23:03:16 +0000</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=XoiBMud94c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>B0pYDrb_nzI</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2019-12-29 17:00:01 +0000</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=B0pYDrb_nzI</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>vpI0tk9G2Jc</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2022-01-26 13:00:36 +0000</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vpI0tk9G2Jc</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>29LWlJ1tEqM</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2018-08-23 23:33:55 +0000</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=29LWlJ1tEqM</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Yob7Ov9-wW0</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2014-06-25 17:02:50 +0000</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Yob7Ov9-wW0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>j-COc5Oz4GY</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2015-11-21 09:42:13 +0000</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j-COc5Oz4GY</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>OheQLsSRjTk</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2018-08-20 18:47:04 +0000</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=OheQLsSRjTk</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>C8mdP5m7GwA</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2022-07-12 17:30:00 +0000</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=C8mdP5m7GwA</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>E6-5FIpBaG0</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2023-05-26 21:42:03 +0000</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=E6-5FIpBaG0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ItRYhj1th5M</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2018-08-23 16:19:23 +0000</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ItRYhj1th5M</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Tp7VyzrbYpM</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2020-01-28 13:00:17 +0000</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Tp7VyzrbYpM</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>wkfZBB1lpIQ</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2023-02-26 15:00:44 +0000</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=wkfZBB1lpIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Zg3j6anDU6U</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2018-08-24 23:13:20 +0000</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Zg3j6anDU6U</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>6VbcBkfokiI</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2016-11-27 17:00:01 +0000</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6VbcBkfokiI</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>H_PTOESEQQI</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2020-05-28 01:56:28 +0000</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=H_PTOESEQQI</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>oloLIn7Mono</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2023-05-31 17:00:34 +0000</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oloLIn7Mono</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>JkE7fOTzV8U</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2020-03-18 13:00:16 +0000</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=JkE7fOTzV8U</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CfdZrjsrdjU</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2019-10-30 20:15:05 +0000</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=CfdZrjsrdjU</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>FoEUd3YfnWc</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2018-07-04 15:01:56 +0000</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=FoEUd3YfnWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>jhyANGHDDH8</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2013-02-09 10:33:19 +0000</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=jhyANGHDDH8</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CTYSFOi7VCo</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2015-09-06 23:54:22 +0000</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=CTYSFOi7VCo</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Suxm7LUTunU</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2020-02-05 13:00:13 +0000</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Suxm7LUTunU</t>
         </is>
       </c>
     </row>
